--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Vendedor</t>
   </si>
@@ -44,46 +44,37 @@
     <t>Total</t>
   </si>
   <si>
+    <t>SUPERTRIO SOM</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 120a Storm Bivolt C</t>
+  </si>
+  <si>
+    <t>JFA ELETRONICOS</t>
+  </si>
+  <si>
+    <t>Acessórios para Veículos / Som Automotivo / Módulos Amplificadores</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>570,56</t>
+  </si>
+  <si>
     <t>KOALA PARTS</t>
   </si>
   <si>
-    <t>Fonte Carregador De Bateria Jfa 200a Lit</t>
-  </si>
-  <si>
-    <t>JFA ELETRONICOS</t>
-  </si>
-  <si>
-    <t>Acessórios para Veículos / Ferramentas para Veículos / Ferramentas para Baterias / Carregadores de Baterías</t>
-  </si>
-  <si>
-    <t>Não</t>
+    <t>Fonte Carregador De Bateria Jfa 60a Lite</t>
   </si>
   <si>
     <t>Clássico</t>
   </si>
   <si>
-    <t>628,36</t>
-  </si>
-  <si>
-    <t>1.256,72</t>
-  </si>
-  <si>
-    <t>KOALA PARTS 2</t>
-  </si>
-  <si>
-    <t>Fonte Carregador De Bateria Jfa 70a Lite</t>
-  </si>
-  <si>
-    <t>376,68</t>
-  </si>
-  <si>
-    <t>753,36</t>
-  </si>
-  <si>
-    <t>Premium</t>
-  </si>
-  <si>
-    <t>660,51</t>
+    <t>308,63</t>
   </si>
   <si>
     <t>MUNDO ELETROSS</t>
@@ -98,19 +89,7 @@
     <t>60,00</t>
   </si>
   <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>TAMANDARÉ</t>
-  </si>
-  <si>
-    <t>Voltímetro Sequenciador Automotivo Digit</t>
-  </si>
-  <si>
-    <t>62,90</t>
-  </si>
-  <si>
-    <t>188,70</t>
+    <t>120,00</t>
   </si>
 </sst>
 </file>
@@ -449,7 +428,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,21 +485,21 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -532,103 +511,45 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
   <si>
     <t>Vendedor</t>
   </si>
@@ -44,52 +44,1006 @@
     <t>Total</t>
   </si>
   <si>
+    <t>RADICALSOM</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+  </si>
+  <si>
+    <t>JFA</t>
+  </si>
+  <si>
+    <t>Acessórios para Veículos / Som Automotivo / Módulos Amplificadores</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>356,25</t>
+  </si>
+  <si>
+    <t>7.481,25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
+  </si>
+  <si>
+    <t>Clássico</t>
+  </si>
+  <si>
+    <t>308,63</t>
+  </si>
+  <si>
+    <t>6.789,86</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+  </si>
+  <si>
+    <t>453,50</t>
+  </si>
+  <si>
+    <t>5.895,50</t>
+  </si>
+  <si>
+    <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bob 200a Jfa</t>
+  </si>
+  <si>
+    <t>527,90</t>
+  </si>
+  <si>
+    <t>5.806,90</t>
+  </si>
+  <si>
+    <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+  </si>
+  <si>
+    <t>536,49</t>
+  </si>
+  <si>
+    <t>4.291,92</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+  </si>
+  <si>
+    <t>400,24</t>
+  </si>
+  <si>
+    <t>4.002,40</t>
+  </si>
+  <si>
+    <t>REDE AUTOPARTS</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+  </si>
+  <si>
+    <t>422,39</t>
+  </si>
+  <si>
+    <t>3.379,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonte Carregador Jfa 90a Bob Storm Slim </t>
+  </si>
+  <si>
+    <t>319,00</t>
+  </si>
+  <si>
+    <t>3.190,00</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+  </si>
+  <si>
+    <t>622,93</t>
+  </si>
+  <si>
+    <t>3.114,65</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+  </si>
+  <si>
+    <t>715,33</t>
+  </si>
+  <si>
+    <t>2.861,32</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+  </si>
+  <si>
+    <t>570,57</t>
+  </si>
+  <si>
+    <t>2.852,85</t>
+  </si>
+  <si>
+    <t>MOTOR SHOP</t>
+  </si>
+  <si>
+    <t>681,27</t>
+  </si>
+  <si>
+    <t>2.725,08</t>
+  </si>
+  <si>
+    <t>2.682,45</t>
+  </si>
+  <si>
+    <t>359,10</t>
+  </si>
+  <si>
+    <t>2.513,70</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 60a Lite Storm Slim</t>
+  </si>
+  <si>
+    <t>2.469,04</t>
+  </si>
+  <si>
+    <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
+  </si>
+  <si>
+    <t>Eletrônicos, Áudio e Vídeo / Componentes Eletrônicos / Conversores de Corrente</t>
+  </si>
+  <si>
+    <t>1.187,50</t>
+  </si>
+  <si>
+    <t>2.375,00</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 200a Lite Storm Sli</t>
+  </si>
+  <si>
+    <t>576,61</t>
+  </si>
+  <si>
+    <t>2.306,44</t>
+  </si>
+  <si>
+    <t>BEST ONLINE</t>
+  </si>
+  <si>
+    <t>2.145,96</t>
+  </si>
+  <si>
+    <t>527,98</t>
+  </si>
+  <si>
+    <t>2.111,92</t>
+  </si>
+  <si>
+    <t>KOALA PARTS</t>
+  </si>
+  <si>
+    <t>374,70</t>
+  </si>
+  <si>
+    <t>1.873,50</t>
+  </si>
+  <si>
+    <t>Inversor Onda Senoidal Pura Jfa 2000w 24v 220v Pico 4000w</t>
+  </si>
+  <si>
+    <t>1.804,28</t>
+  </si>
+  <si>
+    <t>Inversor Onda Senoidal Pura Jfa 2000w 12v 110v Pico 4000w</t>
+  </si>
+  <si>
+    <t>Eletrônicos, Áudio e Vídeo / Componentes Eletrônicos / Inversores de Corrente</t>
+  </si>
+  <si>
+    <t>1.793,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
+  </si>
+  <si>
+    <t>1.767,22</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa Bob 200 Amperes Biv</t>
+  </si>
+  <si>
+    <t>587,59</t>
+  </si>
+  <si>
+    <t>1.762,77</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Automotivo Jfa Storm 20</t>
+  </si>
+  <si>
+    <t>Acessórios para Veículos / Ferramentas para Veículos / Ferramentas para Baterias / Carregadores de Baterías</t>
+  </si>
+  <si>
+    <t>873,44</t>
+  </si>
+  <si>
+    <t>1.746,88</t>
+  </si>
+  <si>
+    <t>344,40</t>
+  </si>
+  <si>
+    <t>1.722,00</t>
+  </si>
+  <si>
+    <t>1.689,56</t>
+  </si>
+  <si>
+    <t>VETA ACESSÓRIOS</t>
+  </si>
+  <si>
+    <t>Controle Jfa Acqua K1200 Longa Distancia</t>
+  </si>
+  <si>
+    <t>Acessórios para Veículos / Som Automotivo / Controles Remotos</t>
+  </si>
+  <si>
+    <t>68,25</t>
+  </si>
+  <si>
+    <t>1.569,75</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 50a Lite Slim Bivol</t>
+  </si>
+  <si>
+    <t>301,71</t>
+  </si>
+  <si>
+    <t>1.508,55</t>
+  </si>
+  <si>
+    <t>SHOP PRÁTICO</t>
+  </si>
+  <si>
+    <t>Controle Longa Distancia Jfa K1200 Verme</t>
+  </si>
+  <si>
+    <t>58,13</t>
+  </si>
+  <si>
+    <t>1.453,25</t>
+  </si>
+  <si>
+    <t>681,26</t>
+  </si>
+  <si>
+    <t>1.362,52</t>
+  </si>
+  <si>
+    <t>1.245,86</t>
+  </si>
+  <si>
+    <t>TAMANDARÉ</t>
+  </si>
+  <si>
+    <t>Fonte Automotiva Jfa Bob Storm 200a Bivo</t>
+  </si>
+  <si>
+    <t>587,60</t>
+  </si>
+  <si>
+    <t>1.175,20</t>
+  </si>
+  <si>
     <t>SUPERTRIO SOM</t>
   </si>
   <si>
-    <t>Fonte Carregador Jfa 120a Storm Bivolt C</t>
-  </si>
-  <si>
-    <t>JFA ELETRONICOS</t>
-  </si>
-  <si>
-    <t>Acessórios para Veículos / Som Automotivo / Módulos Amplificadores</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>Premium</t>
+    <t>Fonte Carregador Jfa Storm 120a Bivolt S</t>
   </si>
   <si>
     <t>570,56</t>
   </si>
   <si>
-    <t>KOALA PARTS</t>
-  </si>
-  <si>
-    <t>Fonte Carregador De Bateria Jfa 60a Lite</t>
-  </si>
-  <si>
-    <t>Clássico</t>
-  </si>
-  <si>
-    <t>308,63</t>
+    <t>1.141,12</t>
+  </si>
+  <si>
+    <t>Fonte Automotiva Jfa Storm Lite 70a Bivo</t>
+  </si>
+  <si>
+    <t>367,38</t>
+  </si>
+  <si>
+    <t>1.102,14</t>
+  </si>
+  <si>
+    <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+  </si>
+  <si>
+    <t>90,78</t>
+  </si>
+  <si>
+    <t>1.089,36</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa Bob Storm 200a Bivo</t>
+  </si>
+  <si>
+    <t>1.055,80</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 120a Lite Storm Sli</t>
+  </si>
+  <si>
+    <t>484,87</t>
+  </si>
+  <si>
+    <t>969,74</t>
+  </si>
+  <si>
+    <t>925,89</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 120a Bob Storm Slim</t>
+  </si>
+  <si>
+    <t>844,78</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+  </si>
+  <si>
+    <t>417,27</t>
+  </si>
+  <si>
+    <t>834,54</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Bateria Jfa 90a Bob Sto</t>
+  </si>
+  <si>
+    <t>389,76</t>
+  </si>
+  <si>
+    <t>779,52</t>
+  </si>
+  <si>
+    <t>BASSAN PARTS</t>
+  </si>
+  <si>
+    <t>369,89</t>
+  </si>
+  <si>
+    <t>739,78</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Automotivo Jfa Bob Stor</t>
+  </si>
+  <si>
+    <t>357,67</t>
+  </si>
+  <si>
+    <t>715,34</t>
+  </si>
+  <si>
+    <t>Fonte Automotiva Jfa 200 Amperes Storm B</t>
+  </si>
+  <si>
+    <t>YTRIUM SHOP</t>
+  </si>
+  <si>
+    <t>681,28</t>
+  </si>
+  <si>
+    <t>655,30</t>
+  </si>
+  <si>
+    <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+  </si>
+  <si>
+    <t>65,45</t>
+  </si>
+  <si>
+    <t>654,50</t>
+  </si>
+  <si>
+    <t>BK SOUND</t>
+  </si>
+  <si>
+    <t>622,00</t>
+  </si>
+  <si>
+    <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+  </si>
+  <si>
+    <t>61,19</t>
+  </si>
+  <si>
+    <t>611,90</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+  </si>
+  <si>
+    <t>606,11</t>
+  </si>
+  <si>
+    <t>606,10</t>
+  </si>
+  <si>
+    <t>DINO TELECOM</t>
+  </si>
+  <si>
+    <t>Fonte Nobreak Retificadora 24v/6a Rack O</t>
+  </si>
+  <si>
+    <t>Informática / Estabilizadores e No Breaks / No-Breaks</t>
+  </si>
+  <si>
+    <t>589,90</t>
+  </si>
+  <si>
+    <t>Fonte Automotiva Jfa Storm Lite 200a Biv</t>
+  </si>
+  <si>
+    <t>576,62</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Bateria Bivolt Jfa Stor</t>
+  </si>
+  <si>
+    <t>Fonte Automotiva 120a Amperes Jfa Carreg</t>
+  </si>
+  <si>
+    <t>TOPSHITECH</t>
+  </si>
+  <si>
+    <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+  </si>
+  <si>
+    <t>550,71</t>
+  </si>
+  <si>
+    <t>PIKADULA PARTS</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 120a Bivolt Sci Sto</t>
+  </si>
+  <si>
+    <t>536,50</t>
+  </si>
+  <si>
+    <t>KOALA PARTS 2</t>
+  </si>
+  <si>
+    <t>Fonte Automotiva 120 Amper Jfa Storm Red</t>
+  </si>
+  <si>
+    <t>527,99</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+  </si>
+  <si>
+    <t>Fonte Jfa Storm 200a Bob Carregador Auto</t>
+  </si>
+  <si>
+    <t>Fonte Chaveada Carregador Automotivo Jfa</t>
+  </si>
+  <si>
+    <t>482,57</t>
+  </si>
+  <si>
+    <t>78,90</t>
+  </si>
+  <si>
+    <t>473,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle Longa Distancia Jfa Redline Wr </t>
+  </si>
+  <si>
+    <t>453,51</t>
+  </si>
+  <si>
+    <t>442,83</t>
+  </si>
+  <si>
+    <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
+  </si>
+  <si>
+    <t>442,82</t>
+  </si>
+  <si>
+    <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+  </si>
+  <si>
+    <t>54,90</t>
+  </si>
+  <si>
+    <t>439,20</t>
+  </si>
+  <si>
+    <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+  </si>
+  <si>
+    <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+  </si>
+  <si>
+    <t>53,99</t>
+  </si>
+  <si>
+    <t>431,92</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 120a Bob Slim Bivol</t>
+  </si>
+  <si>
+    <t>423,70</t>
+  </si>
+  <si>
+    <t>DIGITALSHOP SC</t>
+  </si>
+  <si>
+    <t>Fonte Automotiva Jfa Bob Storm 120a Bivo</t>
+  </si>
+  <si>
+    <t>422,38</t>
   </si>
   <si>
     <t>MUNDO ELETROSS</t>
   </si>
   <si>
-    <t>Voltímetro E Sequenciador Jfa Vs5hi Baix</t>
+    <t>Fonte Automotiva Jfa 70a Storm</t>
+  </si>
+  <si>
+    <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+  </si>
+  <si>
+    <t>80,65</t>
+  </si>
+  <si>
+    <t>403,25</t>
+  </si>
+  <si>
+    <t>400,25</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Automotiva 60a Jfa Sist</t>
+  </si>
+  <si>
+    <t>Fonte Automotiva Carregador Jfa 60a Auto</t>
+  </si>
+  <si>
+    <t>384,00</t>
+  </si>
+  <si>
+    <t>Fonte Automotiva Jfa Bob Storm 90a Bivol</t>
+  </si>
+  <si>
+    <t>379,00</t>
+  </si>
+  <si>
+    <t>374,69</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 60a Slim Bivolt Sis</t>
+  </si>
+  <si>
+    <t>BANDA SOM</t>
+  </si>
+  <si>
+    <t>Jfa 36 A Slim - Fonte Carregador Bateria</t>
+  </si>
+  <si>
+    <t>374,63</t>
+  </si>
+  <si>
+    <t>367,39</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa 90a Bob Storm Bivol</t>
+  </si>
+  <si>
+    <t>359,00</t>
+  </si>
+  <si>
+    <t>345,65</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Jfa Bob 90 Amperes Bivo</t>
+  </si>
+  <si>
+    <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+  </si>
+  <si>
+    <t>340,63</t>
+  </si>
+  <si>
+    <t>PLAYNETWORK TECN</t>
+  </si>
+  <si>
+    <t>Equalizador Para Banco De Baterias Jfa</t>
+  </si>
+  <si>
+    <t>Eletrônicos, Áudio e Vídeo / Outros Eletrônicos</t>
+  </si>
+  <si>
+    <t>169,00</t>
+  </si>
+  <si>
+    <t>338,00</t>
+  </si>
+  <si>
+    <t>330,17</t>
+  </si>
+  <si>
+    <t>Fonte Automotiva Jfa Storm Lite 60a Bivo</t>
+  </si>
+  <si>
+    <t>327,25</t>
+  </si>
+  <si>
+    <t>52,01</t>
+  </si>
+  <si>
+    <t>312,06</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Automotiva Jfa 60a Lite</t>
+  </si>
+  <si>
+    <t>Fonte Carregador Automotivo Jfa 60a Stor</t>
+  </si>
+  <si>
+    <t>85,00</t>
+  </si>
+  <si>
+    <t>255,00</t>
+  </si>
+  <si>
+    <t>WE MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltimetro Digital Jfa Vs5hi Alta/baixa </t>
   </si>
   <si>
     <t>Acessórios para Veículos / Som Automotivo / Outros</t>
   </si>
   <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
+    <t>59,90</t>
+  </si>
+  <si>
+    <t>239,60</t>
+  </si>
+  <si>
+    <t>Filtro Eliminador De Ruído Rca Blindagem</t>
+  </si>
+  <si>
+    <t>Acessórios para Veículos / Som Automotivo / Reprodutores / Acessórios / Outros</t>
+  </si>
+  <si>
+    <t>57,76</t>
+  </si>
+  <si>
+    <t>231,04</t>
+  </si>
+  <si>
+    <t>56,27</t>
+  </si>
+  <si>
+    <t>225,08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo Jfa - Controle Distancia K1200 Br </t>
+  </si>
+  <si>
+    <t>75,00</t>
+  </si>
+  <si>
+    <t>225,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle Longa Distância Jfa Acqua 1200 </t>
+  </si>
+  <si>
+    <t>68,40</t>
+  </si>
+  <si>
+    <t>205,20</t>
+  </si>
+  <si>
+    <t>101,68</t>
+  </si>
+  <si>
+    <t>203,36</t>
+  </si>
+  <si>
+    <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+  </si>
+  <si>
+    <t>Acessórios para Veículos / Som Automotivo / Reprodutores / Acessórios / Transmissores FM</t>
+  </si>
+  <si>
+    <t>38,97</t>
+  </si>
+  <si>
+    <t>194,85</t>
+  </si>
+  <si>
+    <t>Controle De Long Distânc Jfa K1200 Resis</t>
+  </si>
+  <si>
+    <t>96,23</t>
+  </si>
+  <si>
+    <t>192,46</t>
+  </si>
+  <si>
+    <t>62,29</t>
+  </si>
+  <si>
+    <t>186,87</t>
+  </si>
+  <si>
+    <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+  </si>
+  <si>
+    <t>57,99</t>
+  </si>
+  <si>
+    <t>173,97</t>
+  </si>
+  <si>
+    <t>34,32</t>
+  </si>
+  <si>
+    <t>171,60</t>
+  </si>
+  <si>
+    <t>170,00</t>
+  </si>
+  <si>
+    <t>54,59</t>
+  </si>
+  <si>
+    <t>163,77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle Longa Distancia Jfa Acqua 1200 </t>
+  </si>
+  <si>
+    <t>161,30</t>
+  </si>
+  <si>
+    <t>Equalizador E Balanceador De Baterias So</t>
+  </si>
+  <si>
+    <t>155,00</t>
+  </si>
+  <si>
+    <t>Controle Longa Distância Jfa Acqua K1200</t>
+  </si>
+  <si>
+    <t>73,92</t>
+  </si>
+  <si>
+    <t>147,84</t>
+  </si>
+  <si>
+    <t>Controle Longa Distancia Jfa K1200 Acqua</t>
+  </si>
+  <si>
+    <t>68,90</t>
+  </si>
+  <si>
+    <t>137,80</t>
+  </si>
+  <si>
+    <t>62,89</t>
+  </si>
+  <si>
+    <t>125,78</t>
+  </si>
+  <si>
+    <t>Controle Longa Distancia Jfa K1200 Preto</t>
+  </si>
+  <si>
+    <t>61,62</t>
+  </si>
+  <si>
+    <t>123,24</t>
+  </si>
+  <si>
+    <t>Filtro Anti Ruído Jfa P/ Rca Cd Dvd Elet</t>
+  </si>
+  <si>
+    <t>55,71</t>
+  </si>
+  <si>
+    <t>111,42</t>
+  </si>
+  <si>
+    <t>Controle Remoto Universal Longa Jfa K120</t>
+  </si>
+  <si>
+    <t>104,02</t>
+  </si>
+  <si>
+    <t>Kit Controle Longa Distância Jfa Redline</t>
+  </si>
+  <si>
+    <t>99,11</t>
+  </si>
+  <si>
+    <t>Controle Longa Distancia Jfa K600 Branco</t>
+  </si>
+  <si>
+    <t>49,48</t>
+  </si>
+  <si>
+    <t>98,96</t>
+  </si>
+  <si>
+    <t>98,90</t>
+  </si>
+  <si>
+    <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Rad</t>
+  </si>
+  <si>
+    <t>95,00</t>
+  </si>
+  <si>
+    <t>89,00</t>
+  </si>
+  <si>
+    <t>Controle Longa Distancia Jfa 1200mtr Wr P/ 99% Dos Aparelhos</t>
+  </si>
+  <si>
+    <t>Controle Longa Distância Jfa Acqua 1200 Resistente Água Som Cor Preto</t>
+  </si>
+  <si>
+    <t>87,90</t>
+  </si>
+  <si>
+    <t>84,00</t>
+  </si>
+  <si>
+    <t>EXTREME ÁUDIO</t>
+  </si>
+  <si>
+    <t>Controle Longa Distância Jfa K600 600 Me</t>
+  </si>
+  <si>
+    <t>79,42</t>
+  </si>
+  <si>
+    <t>78,99</t>
+  </si>
+  <si>
+    <t>Controle Longa Distancia Jfa K1200 Cor V</t>
+  </si>
+  <si>
+    <t>74,99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jfa K1200 Controle Longa Distancia 1200 </t>
+  </si>
+  <si>
+    <t>OBVIUS ACOUSTIC BOX</t>
+  </si>
+  <si>
+    <t>Conversor Fio P/ Rca Jfa Remoto Cd Dvd R</t>
+  </si>
+  <si>
+    <t>37,00</t>
+  </si>
+  <si>
+    <t>74,00</t>
+  </si>
+  <si>
+    <t>Controle De Longa Distância Jfa Acqua 12</t>
+  </si>
+  <si>
+    <t>67,06</t>
+  </si>
+  <si>
+    <t>VECAR ACESSÓRIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle Longa Distância Jfa 600 Branco </t>
+  </si>
+  <si>
+    <t>66,66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle Jfa K1200 Longa Distancia 1200 </t>
+  </si>
+  <si>
+    <t>66,50</t>
+  </si>
+  <si>
+    <t>EA AUDIO</t>
+  </si>
+  <si>
+    <t>Controle De Som Automotivo Longa Distanc</t>
+  </si>
+  <si>
+    <t>66,20</t>
+  </si>
+  <si>
+    <t>65,32</t>
+  </si>
+  <si>
+    <t>Controle Remoto Universal Longa Distânci</t>
+  </si>
+  <si>
+    <t>PEDROSO BIBI</t>
+  </si>
+  <si>
+    <t>Jfa K1200 Preto Cordão + Central + Controle Longa Distancia</t>
+  </si>
+  <si>
+    <t>61,08</t>
+  </si>
+  <si>
+    <t>Controle Longa Distância Jfa K1200 1200 M + Central E Cordão Cor Azul</t>
+  </si>
+  <si>
+    <t>60,17</t>
+  </si>
+  <si>
+    <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+  </si>
+  <si>
+    <t>Filtro Rca Anti-ruído Jfa</t>
+  </si>
+  <si>
+    <t>58,90</t>
+  </si>
+  <si>
+    <t>58,54</t>
+  </si>
+  <si>
+    <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+  </si>
+  <si>
+    <t>Controle Longa Distância Jfa K600 + Cent</t>
+  </si>
+  <si>
+    <t>Filtro Anti-ruido Jfa Rca Eletromagnétic</t>
+  </si>
+  <si>
+    <t>53,89</t>
+  </si>
+  <si>
+    <t>52,90</t>
+  </si>
+  <si>
+    <t>Voltimetro Digiltal Jfa V12 Slim Saída R</t>
+  </si>
+  <si>
+    <t>48,94</t>
+  </si>
+  <si>
+    <t>44,00</t>
+  </si>
+  <si>
+    <t>Conversor De Fio Rca Remoto Slim Jfa</t>
+  </si>
+  <si>
+    <t>39,90</t>
+  </si>
+  <si>
+    <t>ZARI PARTS</t>
+  </si>
+  <si>
+    <t>62,00</t>
+  </si>
+  <si>
+    <t>-62,00</t>
   </si>
 </sst>
 </file>
@@ -428,7 +1382,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,18 +1439,18 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -514,18 +1468,18 @@
         <v>18</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -534,22 +1488,5097 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="G4">
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>129</v>
+      </c>
+      <c r="I43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>132</v>
+      </c>
+      <c r="I44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>139</v>
+      </c>
+      <c r="I48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>142</v>
+      </c>
+      <c r="I52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>145</v>
+      </c>
+      <c r="I53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>151</v>
+      </c>
+      <c r="I56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>155</v>
+      </c>
+      <c r="I57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>157</v>
+      </c>
+      <c r="I58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>109</v>
+      </c>
+      <c r="I63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>109</v>
+      </c>
+      <c r="I64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>147</v>
+      </c>
+      <c r="I65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>165</v>
+      </c>
+      <c r="I66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>165</v>
+      </c>
+      <c r="I67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>165</v>
+      </c>
+      <c r="I68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" t="s">
         <v>24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>168</v>
+      </c>
+      <c r="I70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>168</v>
+      </c>
+      <c r="I71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>120</v>
+      </c>
+      <c r="I73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>172</v>
+      </c>
+      <c r="I74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
+      <c r="H75" t="s">
+        <v>173</v>
+      </c>
+      <c r="I75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76">
+        <v>6</v>
+      </c>
+      <c r="H76" t="s">
+        <v>173</v>
+      </c>
+      <c r="I76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>176</v>
+      </c>
+      <c r="I77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>177</v>
+      </c>
+      <c r="I78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>177</v>
+      </c>
+      <c r="I79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>179</v>
+      </c>
+      <c r="I80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81">
+        <v>8</v>
+      </c>
+      <c r="H81" t="s">
+        <v>181</v>
+      </c>
+      <c r="I81" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82">
+        <v>8</v>
+      </c>
+      <c r="H82" t="s">
+        <v>181</v>
+      </c>
+      <c r="I82" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83">
+        <v>8</v>
+      </c>
+      <c r="H83" t="s">
+        <v>185</v>
+      </c>
+      <c r="I83" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>188</v>
+      </c>
+      <c r="I84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I85" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>35</v>
+      </c>
+      <c r="I86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>35</v>
+      </c>
+      <c r="I87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>191</v>
+      </c>
+      <c r="I88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>191</v>
+      </c>
+      <c r="I89" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>191</v>
+      </c>
+      <c r="I90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>126</v>
+      </c>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>126</v>
+      </c>
+      <c r="I92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+      <c r="H93" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>197</v>
+      </c>
+      <c r="I94" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>82</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>31</v>
+      </c>
+      <c r="I95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>31</v>
+      </c>
+      <c r="I96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>200</v>
+      </c>
+      <c r="I97" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>202</v>
+      </c>
+      <c r="I98" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>203</v>
+      </c>
+      <c r="I99" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>204</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>82</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>203</v>
+      </c>
+      <c r="I100" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>207</v>
+      </c>
+      <c r="I101" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>208</v>
+      </c>
+      <c r="I102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>53</v>
+      </c>
+      <c r="I103" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>53</v>
+      </c>
+      <c r="I104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>210</v>
+      </c>
+      <c r="I105" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>211</v>
+      </c>
+      <c r="I106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>85</v>
+      </c>
+      <c r="I107" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>103</v>
+      </c>
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>18</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>214</v>
+      </c>
+      <c r="I108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>217</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="H109" t="s">
+        <v>218</v>
+      </c>
+      <c r="I109" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>220</v>
+      </c>
+      <c r="I110" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>103</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>220</v>
+      </c>
+      <c r="I111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>103</v>
+      </c>
+      <c r="B112" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>220</v>
+      </c>
+      <c r="I112" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>90</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113">
+        <v>5</v>
+      </c>
+      <c r="H113" t="s">
+        <v>142</v>
+      </c>
+      <c r="I113" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>138</v>
+      </c>
+      <c r="B114" t="s">
+        <v>97</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>90</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114">
+        <v>6</v>
+      </c>
+      <c r="H114" t="s">
+        <v>223</v>
+      </c>
+      <c r="I114" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>82</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>90</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118" t="s">
+        <v>227</v>
+      </c>
+      <c r="I118" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" t="s">
+        <v>230</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119">
+        <v>4</v>
+      </c>
+      <c r="H119" t="s">
+        <v>232</v>
+      </c>
+      <c r="I119" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>68</v>
+      </c>
+      <c r="B120" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>235</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120">
+        <v>4</v>
+      </c>
+      <c r="H120" t="s">
+        <v>236</v>
+      </c>
+      <c r="I120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" t="s">
+        <v>161</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>90</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121">
+        <v>4</v>
+      </c>
+      <c r="H121" t="s">
+        <v>238</v>
+      </c>
+      <c r="I121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>205</v>
+      </c>
+      <c r="B122" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>90</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122" t="s">
+        <v>241</v>
+      </c>
+      <c r="I122" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" t="s">
+        <v>243</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>90</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123" t="s">
+        <v>244</v>
+      </c>
+      <c r="I123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>189</v>
+      </c>
+      <c r="B124" t="s">
+        <v>175</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>90</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+      <c r="H124" t="s">
+        <v>246</v>
+      </c>
+      <c r="I124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>249</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+      <c r="H125" t="s">
+        <v>250</v>
+      </c>
+      <c r="I125" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>90</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126" t="s">
+        <v>253</v>
+      </c>
+      <c r="I126" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>88</v>
+      </c>
+      <c r="B127" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>90</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+      <c r="H127" t="s">
+        <v>255</v>
+      </c>
+      <c r="I127" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>107</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>90</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+      <c r="H128" t="s">
+        <v>258</v>
+      </c>
+      <c r="I128" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s">
+        <v>249</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129">
+        <v>5</v>
+      </c>
+      <c r="H129" t="s">
+        <v>260</v>
+      </c>
+      <c r="I129" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>192</v>
+      </c>
+      <c r="B130" t="s">
+        <v>243</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>90</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130" t="s">
+        <v>227</v>
+      </c>
+      <c r="I130" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>107</v>
+      </c>
+      <c r="B131" t="s">
+        <v>252</v>
+      </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s">
+        <v>90</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131">
+        <v>3</v>
+      </c>
+      <c r="H131" t="s">
+        <v>263</v>
+      </c>
+      <c r="I131" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>103</v>
+      </c>
+      <c r="B132" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
+        <v>90</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132" t="s">
+        <v>195</v>
+      </c>
+      <c r="I132" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>215</v>
+      </c>
+      <c r="B133" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>217</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>268</v>
+      </c>
+      <c r="I133" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134" t="s">
+        <v>269</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>90</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>270</v>
+      </c>
+      <c r="I134" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>90</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135">
+        <v>2</v>
+      </c>
+      <c r="H135" t="s">
+        <v>273</v>
+      </c>
+      <c r="I135" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>96</v>
+      </c>
+      <c r="B136" t="s">
+        <v>161</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>90</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136" t="s">
+        <v>275</v>
+      </c>
+      <c r="I136" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>103</v>
+      </c>
+      <c r="B137" t="s">
+        <v>277</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>90</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137" t="s">
+        <v>278</v>
+      </c>
+      <c r="I137" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>96</v>
+      </c>
+      <c r="B138" t="s">
+        <v>280</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>235</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138" t="s">
+        <v>281</v>
+      </c>
+      <c r="I138" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>283</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>90</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139" t="s">
+        <v>223</v>
+      </c>
+      <c r="I139" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140">
+        <v>525709</v>
+      </c>
+      <c r="B140" t="s">
+        <v>285</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s">
+        <v>90</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>286</v>
+      </c>
+      <c r="I140" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>107</v>
+      </c>
+      <c r="B141" t="s">
+        <v>287</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>90</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141">
+        <v>2</v>
+      </c>
+      <c r="H141" t="s">
+        <v>288</v>
+      </c>
+      <c r="I141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>103</v>
+      </c>
+      <c r="B142" t="s">
+        <v>175</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>90</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142" t="s">
+        <v>290</v>
+      </c>
+      <c r="I142" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>103</v>
+      </c>
+      <c r="B143" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>90</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143" t="s">
+        <v>253</v>
+      </c>
+      <c r="I143" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>64</v>
+      </c>
+      <c r="B144" t="s">
+        <v>291</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>235</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144" t="s">
+        <v>292</v>
+      </c>
+      <c r="I144" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>175</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>90</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145" t="s">
+        <v>293</v>
+      </c>
+      <c r="I145" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>90</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146" t="s">
+        <v>293</v>
+      </c>
+      <c r="I146" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>295</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>90</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147" t="s">
+        <v>296</v>
+      </c>
+      <c r="I147" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>192</v>
+      </c>
+      <c r="B148" t="s">
+        <v>243</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>90</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148" t="s">
+        <v>297</v>
+      </c>
+      <c r="I148" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>103</v>
+      </c>
+      <c r="B149" t="s">
+        <v>141</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>90</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149" t="s">
+        <v>195</v>
+      </c>
+      <c r="I149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s">
+        <v>90</v>
+      </c>
+      <c r="E150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150" t="s">
+        <v>300</v>
+      </c>
+      <c r="I150" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>160</v>
+      </c>
+      <c r="B151" t="s">
+        <v>161</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s">
+        <v>90</v>
+      </c>
+      <c r="E151" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151" t="s">
+        <v>301</v>
+      </c>
+      <c r="I151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
+        <v>90</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152" t="s">
+        <v>303</v>
+      </c>
+      <c r="I152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s">
+        <v>90</v>
+      </c>
+      <c r="E153" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
+        <v>18</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153" t="s">
+        <v>303</v>
+      </c>
+      <c r="I153" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154" t="s">
+        <v>306</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s">
+        <v>249</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154">
+        <v>2</v>
+      </c>
+      <c r="H154" t="s">
+        <v>307</v>
+      </c>
+      <c r="I154" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>131</v>
+      </c>
+      <c r="B155" t="s">
+        <v>141</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
+        <v>90</v>
+      </c>
+      <c r="E155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155" t="s">
+        <v>270</v>
+      </c>
+      <c r="I155" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" t="s">
+        <v>141</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>90</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156" t="s">
+        <v>273</v>
+      </c>
+      <c r="I156" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>229</v>
+      </c>
+      <c r="B157" t="s">
+        <v>309</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s">
+        <v>90</v>
+      </c>
+      <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157" t="s">
+        <v>310</v>
+      </c>
+      <c r="I157" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>311</v>
+      </c>
+      <c r="B158" t="s">
+        <v>312</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
+        <v>90</v>
+      </c>
+      <c r="E158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158" t="s">
+        <v>313</v>
+      </c>
+      <c r="I158" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>298</v>
+      </c>
+      <c r="B159" t="s">
+        <v>314</v>
+      </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s">
+        <v>90</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159" t="s">
+        <v>315</v>
+      </c>
+      <c r="I159" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" t="s">
+        <v>317</v>
+      </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s">
+        <v>90</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160" t="s">
+        <v>318</v>
+      </c>
+      <c r="I160" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>205</v>
+      </c>
+      <c r="B161" t="s">
+        <v>141</v>
+      </c>
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s">
+        <v>90</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
+        <v>18</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161" t="s">
+        <v>319</v>
+      </c>
+      <c r="I161" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>103</v>
+      </c>
+      <c r="B162" t="s">
+        <v>277</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s">
+        <v>90</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>18</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162" t="s">
+        <v>278</v>
+      </c>
+      <c r="I162" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>103</v>
+      </c>
+      <c r="B163" t="s">
+        <v>97</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s">
+        <v>90</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>18</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163" t="s">
+        <v>278</v>
+      </c>
+      <c r="I163" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>320</v>
+      </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s">
+        <v>90</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164" t="s">
+        <v>147</v>
+      </c>
+      <c r="I164" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>321</v>
+      </c>
+      <c r="B165" t="s">
+        <v>322</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s">
+        <v>90</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>18</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165" t="s">
+        <v>323</v>
+      </c>
+      <c r="I165" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166">
+        <v>527740</v>
+      </c>
+      <c r="B166" t="s">
+        <v>324</v>
+      </c>
+      <c r="C166" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s">
+        <v>90</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>18</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166" t="s">
+        <v>325</v>
+      </c>
+      <c r="I166" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>326</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>90</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167" t="s">
+        <v>232</v>
+      </c>
+      <c r="I167" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>103</v>
+      </c>
+      <c r="B168" t="s">
+        <v>327</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
+        <v>235</v>
+      </c>
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
+        <v>18</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168" t="s">
+        <v>328</v>
+      </c>
+      <c r="I168" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>103</v>
+      </c>
+      <c r="B169" t="s">
+        <v>184</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s">
+        <v>90</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169" t="s">
+        <v>329</v>
+      </c>
+      <c r="I169" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>103</v>
+      </c>
+      <c r="B170" t="s">
+        <v>330</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s">
+        <v>90</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170" t="s">
+        <v>329</v>
+      </c>
+      <c r="I170" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>107</v>
+      </c>
+      <c r="B171" t="s">
+        <v>161</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s">
+        <v>90</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171" t="s">
+        <v>258</v>
+      </c>
+      <c r="I171" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>331</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s">
+        <v>90</v>
+      </c>
+      <c r="E172" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172" t="s">
+        <v>181</v>
+      </c>
+      <c r="I172" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" t="s">
+        <v>332</v>
+      </c>
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s">
+        <v>235</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
+        <v>18</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173" t="s">
+        <v>333</v>
+      </c>
+      <c r="I173" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>107</v>
+      </c>
+      <c r="B174" t="s">
+        <v>184</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s">
+        <v>90</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174" t="s">
+        <v>334</v>
+      </c>
+      <c r="I174" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>107</v>
+      </c>
+      <c r="B175" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>90</v>
+      </c>
+      <c r="E175" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" t="s">
+        <v>18</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175" t="s">
+        <v>334</v>
+      </c>
+      <c r="I175" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>321</v>
+      </c>
+      <c r="B176" t="s">
+        <v>335</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s">
+        <v>231</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176" t="s">
+        <v>336</v>
+      </c>
+      <c r="I176" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>305</v>
+      </c>
+      <c r="B177" t="s">
+        <v>306</v>
+      </c>
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s">
+        <v>249</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177" t="s">
+        <v>337</v>
+      </c>
+      <c r="I177" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>103</v>
+      </c>
+      <c r="B178" t="s">
+        <v>338</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s">
+        <v>249</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178" t="s">
+        <v>339</v>
+      </c>
+      <c r="I178" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>340</v>
+      </c>
+      <c r="B179" t="s">
+        <v>295</v>
+      </c>
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s">
+        <v>90</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>18</v>
+      </c>
+      <c r="G179">
+        <v>-1</v>
+      </c>
+      <c r="H179" t="s">
+        <v>341</v>
+      </c>
+      <c r="I179" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
